--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3824634.716546299</v>
+        <v>3822382.636835092</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>171.1963318343102</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.5745992224478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>34.16966515648244</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1167978045337</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606658</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187876</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576154</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>127.996768116959</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835251</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.147705894839</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.882007288089</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898442</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136264</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875184</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686061</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064737</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080117</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986291</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.04692080906</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>1320.057369911042</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>1099.264790767512</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264415</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4844,10 +4844,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,28 +5054,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5522,22 +5522,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,19 +6072,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.61870490125337</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864958</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685507</v>
@@ -26439,19 +26439,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195162</v>
+        <v>-729566.7475195164</v>
       </c>
       <c r="C6" t="n">
-        <v>599177.9982080761</v>
+        <v>599177.998208076</v>
       </c>
       <c r="D6" t="n">
-        <v>599177.9982080761</v>
+        <v>599177.998208076</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896383</v>
+        <v>346181.4530642029</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969933</v>
+        <v>671593.914871558</v>
       </c>
       <c r="G6" t="n">
-        <v>671628.6527969935</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="H6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715577</v>
       </c>
       <c r="I6" t="n">
-        <v>671628.6527969937</v>
+        <v>671593.9148715576</v>
       </c>
       <c r="J6" t="n">
-        <v>454097.4503997159</v>
+        <v>454062.7124742808</v>
       </c>
       <c r="K6" t="n">
-        <v>671628.6527969937</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="L6" t="n">
-        <v>671628.6527969934</v>
+        <v>671593.9148715582</v>
       </c>
       <c r="M6" t="n">
-        <v>586573.6248614817</v>
+        <v>586538.8869360461</v>
       </c>
       <c r="N6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="O6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715578</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>235.6797139074013</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.2573809594895</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>320.5133764642005</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.6170438589469</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.288303211476887e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
